--- a/lecture5/peer-assessment-template.xlsx
+++ b/lecture5/peer-assessment-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikla\Desktop\Metropolia\Data Structures and Algorithms\lecture4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikla\Desktop\Metropolia\Data Structures and Algorithms\lecture5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B828E95D-02ED-49DA-A699-9DD116437F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0522BD-3841-4F6D-A617-A5D1A561949D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>Points</t>
   </si>
@@ -189,6 +189,9 @@
   </si>
   <si>
     <t>13/2/2023-17/2/2023</t>
+  </si>
+  <si>
+    <t>27/2/2023-3/3/2023</t>
   </si>
 </sst>
 </file>
@@ -687,7 +690,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -764,14 +767,24 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
+      <c r="C4" s="5">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5">
+        <v>5</v>
+      </c>
+      <c r="F4" s="5">
+        <v>5</v>
+      </c>
       <c r="G4" s="6">
         <v>20</v>
       </c>
